--- a/log_history/Y4_B2526_Clinical_Pathology_scanner1766390059208_a12ff700a4f05d837b3c3f5afcd04a4690613f7b4795b0ae82d219c3eb2b4626.xlsx
+++ b/log_history/Y4_B2526_Clinical_Pathology_scanner1766390059208_a12ff700a4f05d837b3c3f5afcd04a4690613f7b4795b0ae82d219c3eb2b4626.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Scanner" sheetId="1" r:id="rId1"/>
+    <sheet name="Session" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>

--- a/log_history/Y4_B2526_Clinical_Pathology_scanner1766390059208_a12ff700a4f05d837b3c3f5afcd04a4690613f7b4795b0ae82d219c3eb2b4626.xlsx
+++ b/log_history/Y4_B2526_Clinical_Pathology_scanner1766390059208_a12ff700a4f05d837b3c3f5afcd04a4690613f7b4795b0ae82d219c3eb2b4626.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Session" sheetId="1" r:id="rId1"/>
+    <sheet name="Clinical_Pathology" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
